--- a/BrotherCafe/build/classes/com/cafe/connect/thongke.xlsx
+++ b/BrotherCafe/build/classes/com/cafe/connect/thongke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="61">
   <si>
     <t/>
   </si>
@@ -67,70 +67,136 @@
     <t>Số Lượng Bán</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>Cafe Capuchino</t>
+  </si>
+  <si>
+    <t>Cafe Đen Đá</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>Cafe Muối</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>Cafe Sữa</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>Fanta</t>
-  </si>
-  <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>CocaCola</t>
-  </si>
-  <si>
-    <t>Nước Suối</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>B09</t>
-  </si>
-  <si>
-    <t>21:53:44.0000000</t>
-  </si>
-  <si>
-    <t>21:54:43.0000000</t>
-  </si>
-  <si>
-    <t>nghiatv</t>
+    <t>07:12:33.0000000</t>
+  </si>
+  <si>
+    <t>08:50:12.0000000</t>
+  </si>
+  <si>
+    <t>phatdv</t>
   </si>
   <si>
     <t>Chưa Thanh Toán</t>
   </si>
   <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>08:10:33.0000000</t>
-  </si>
-  <si>
-    <t>lylc</t>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>19:05:33.0000000</t>
+  </si>
+  <si>
+    <t>21:55:55.0000000</t>
+  </si>
+  <si>
+    <t>kietlt</t>
   </si>
   <si>
     <t>Đã Thanh Toán</t>
   </si>
   <si>
-    <t>SP06</t>
-  </si>
-  <si>
-    <t>Nước chai</t>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>2023-10-14 19:10:01.0</t>
+  </si>
+  <si>
+    <t>18:20:33.0000000</t>
+  </si>
+  <si>
+    <t>20:29:17.0000000</t>
+  </si>
+  <si>
+    <t>vinhvtt</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>2023-10-12 20:10:01.0</t>
+  </si>
+  <si>
+    <t>11:40:28.0000000</t>
+  </si>
+  <si>
+    <t>12:50:12.0000000</t>
+  </si>
+  <si>
+    <t>trieuttp</t>
+  </si>
+  <si>
+    <t>SP01</t>
+  </si>
+  <si>
+    <t>Cà phê</t>
+  </si>
+  <si>
+    <t>20000.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>60000.0</t>
+  </si>
+  <si>
+    <t>SP02</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>30000.0</t>
+  </si>
+  <si>
+    <t>SP03</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>24000.0</t>
+  </si>
+  <si>
+    <t>SP04</t>
+  </si>
+  <si>
+    <t>Cafe Sữa Nóng</t>
+  </si>
+  <si>
+    <t>SP05</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>SP07</t>
-  </si>
-  <si>
-    <t>SP08</t>
-  </si>
-  <si>
-    <t>SP09</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -175,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,43 +269,43 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>45000.0</v>
+        <v>40000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15000.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15000.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -248,21 +314,35 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>8000.0</v>
+        <v>20000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15000.0</v>
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30000.0</v>
       </c>
     </row>
   </sheetData>
@@ -272,7 +352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,147 +389,176 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>375000.0</v>
+        <v>52000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>375000.0</v>
+        <v>20002.0</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H5" t="n">
-        <v>375000.0</v>
+        <v>30001.0</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>95000.0</v>
+        <v>52000.0</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>375000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +568,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,82 +596,102 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8000.0</v>
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8000.0</v>
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15000.0</v>
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15000.0</v>
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15000.0</v>
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15000.0</v>
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15000.0</v>
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60000.0</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
